--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Автотест 1</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Оставить поле задачи пустым</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>Создание категории</t>
@@ -126,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -136,6 +133,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C11">
@@ -530,7 +530,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13">
         <v>3</v>
       </c>
@@ -548,7 +548,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14">
         <v>4</v>
       </c>
@@ -557,7 +557,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15">
         <v>5</v>
       </c>
@@ -566,140 +566,131 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
